--- a/QuanLyKho/Templates/phieuchuyen.xlsx
+++ b/QuanLyKho/Templates/phieuchuyen.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -67,12 +67,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -244,7 +244,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -274,7 +274,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -306,7 +306,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -338,7 +338,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -370,7 +370,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -402,7 +402,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -455,7 +455,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -480,7 +480,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -563,7 +563,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,10 +595,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,7 +629,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -806,28 +804,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -837,7 +835,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="20.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -847,7 +845,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -855,12 +853,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -880,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -888,12 +886,12 @@
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>13</v>
       </c>
